--- a/CertificationExam3-master/CollectWorkItems/Data/Result.xlsx
+++ b/CertificationExam3-master/CollectWorkItems/Data/Result.xlsx
@@ -1,36 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshihiko Miyaichi\Documents\UiPath\Certification exam #3\CollectWorkItems\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MagdyA4\Documents\UiPath\CertificationExam3-master\CollectWorkItems\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBBFB59-FCA5-443F-83F5-3BFC96A23E77}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="10185" xr2:uid="{997138EE-512C-482A-8C8A-8FE47B10C178}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="8">
   <si>
     <t>WIID</t>
   </si>
@@ -59,21 +53,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -95,20 +81,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -124,7 +104,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -140,7 +120,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -152,7 +132,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -199,23 +179,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -251,23 +214,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,14 +365,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53ABB224-B489-4ED5-8011-4E52316A5FB1}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,9 +389,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>139902</v>
+        <v>962522</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -457,12 +403,12 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>43179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.7">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>516972</v>
+        <v>837862</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -474,12 +420,12 @@
         <v>7</v>
       </c>
       <c r="E3" s="1">
-        <v>43330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.7">
+        <v>43242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>366012</v>
+        <v>906912</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -491,12 +437,12 @@
         <v>7</v>
       </c>
       <c r="E4" s="1">
-        <v>43118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.7">
+        <v>43381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>937352</v>
+        <v>515842</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -508,12 +454,12 @@
         <v>7</v>
       </c>
       <c r="E5" s="1">
-        <v>43275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.7">
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>910062</v>
+        <v>802782</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -525,12 +471,12 @@
         <v>7</v>
       </c>
       <c r="E6" s="1">
-        <v>43136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.7">
+        <v>43150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>810332</v>
+        <v>636492</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -542,12 +488,12 @@
         <v>7</v>
       </c>
       <c r="E7" s="1">
-        <v>43364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.7">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>608312</v>
+        <v>697552</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -559,12 +505,12 @@
         <v>7</v>
       </c>
       <c r="E8" s="1">
-        <v>43210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.7">
+        <v>43231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>570522</v>
+        <v>191382</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -576,12 +522,12 @@
         <v>7</v>
       </c>
       <c r="E9" s="1">
-        <v>43242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.7">
+        <v>43141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>618602</v>
+        <v>479542</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -593,12 +539,12 @@
         <v>7</v>
       </c>
       <c r="E10" s="1">
-        <v>43255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.7">
+        <v>43279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>940912</v>
+        <v>758992</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -610,12 +556,12 @@
         <v>7</v>
       </c>
       <c r="E11" s="1">
-        <v>43155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.7">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>763232</v>
+        <v>746282</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -627,12 +573,12 @@
         <v>7</v>
       </c>
       <c r="E12" s="1">
-        <v>43112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.7">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>123372</v>
+        <v>583912</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -644,12 +590,12 @@
         <v>7</v>
       </c>
       <c r="E13" s="1">
-        <v>43146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.7">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>496932</v>
+        <v>367012</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -661,12 +607,12 @@
         <v>7</v>
       </c>
       <c r="E14" s="1">
-        <v>43282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.7">
+        <v>43319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>717542</v>
+        <v>419692</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -678,79 +624,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="1">
-        <v>43197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A16">
-        <v>676662</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1">
-        <v>43341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A17">
-        <v>770892</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1">
-        <v>43256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A18">
-        <v>107572</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1">
-        <v>43287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A19">
-        <v>900412</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1">
-        <v>43279</v>
+        <v>43455</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CertificationExam3-master/CollectWorkItems/Data/Result.xlsx
+++ b/CertificationExam3-master/CollectWorkItems/Data/Result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>WIID</t>
   </si>
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,176 +457,6 @@
         <v>43536</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>802782</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1">
-        <v>43150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>636492</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1">
-        <v>43516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>697552</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>43231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>191382</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1">
-        <v>43141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>479542</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1">
-        <v>43279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>758992</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1">
-        <v>43181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>746282</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1">
-        <v>43188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>583912</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1">
-        <v>43442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>367012</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1">
-        <v>43319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>419692</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1">
-        <v>43455</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
